--- a/Leak/ext_Resources/BMW_7.4kW.xlsx
+++ b/Leak/ext_Resources/BMW_7.4kW.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leak_Format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnonymouS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89291E5-0FD1-43FE-B4EA-A2491D651998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C0B5A3-8BE3-48C1-95FC-C9272DED4968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
   <si>
     <t>:</t>
   </si>
@@ -616,13 +616,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -698,6 +691,13 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1077,6 +1077,79 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>31114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>140335</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3038475" y="7584439"/>
+          <a:ext cx="2388235" cy="1845311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1787,7 +1860,7 @@
   <dimension ref="A1:AS270"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AT7" sqref="AT7"/>
+      <selection activeCell="AM39" sqref="AM39:AP39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1948,33 +2021,33 @@
       <c r="I6" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
       <c r="S6" s="63"/>
       <c r="T6" s="63"/>
       <c r="U6" s="63"/>
       <c r="V6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="72" t="s">
+      <c r="W6" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
       <c r="AE6" s="63"/>
       <c r="AF6" s="63"/>
       <c r="AG6" s="11"/>
@@ -1983,12 +2056,12 @@
       <c r="AJ6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AK6" s="69"/>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="69"/>
-      <c r="AN6" s="69"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="69"/>
+      <c r="AK6" s="67"/>
+      <c r="AL6" s="67"/>
+      <c r="AM6" s="67"/>
+      <c r="AN6" s="67"/>
+      <c r="AO6" s="67"/>
+      <c r="AP6" s="67"/>
       <c r="AQ6" s="14"/>
     </row>
     <row r="7" spans="1:43" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2005,33 +2078,33 @@
       <c r="I7" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
       <c r="S7" s="63"/>
       <c r="T7" s="63"/>
       <c r="U7" s="63"/>
       <c r="V7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="W7" s="73" t="s">
+      <c r="W7" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
       <c r="AG7" s="63"/>
@@ -2040,12 +2113,12 @@
       <c r="AJ7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="69"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
       <c r="AQ7" s="16"/>
     </row>
     <row r="8" spans="1:43" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2062,31 +2135,31 @@
       <c r="I8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
       <c r="S8" s="63"/>
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
       <c r="V8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="70" t="s">
+      <c r="W8" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
@@ -2095,12 +2168,12 @@
       <c r="AJ8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="75"/>
-      <c r="AM8" s="75"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="75"/>
-      <c r="AP8" s="75"/>
+      <c r="AK8" s="73"/>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="73"/>
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="73"/>
+      <c r="AP8" s="73"/>
       <c r="AQ8" s="14"/>
     </row>
     <row r="9" spans="1:43" s="5" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2265,7 +2338,7 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
-      <c r="AG12" s="66" t="s">
+      <c r="AG12" s="91" t="s">
         <v>61</v>
       </c>
       <c r="AM12" s="4"/>
@@ -2315,14 +2388,14 @@
       <c r="AD13" s="24"/>
       <c r="AE13" s="24"/>
       <c r="AF13" s="24"/>
-      <c r="AG13" s="67">
-        <v>44574</v>
-      </c>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
+      <c r="AG13" s="92">
+        <v>44231</v>
+      </c>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="92"/>
       <c r="AM13" s="25"/>
       <c r="AN13" s="25"/>
       <c r="AO13" s="4"/>
@@ -3415,161 +3488,159 @@
     </row>
     <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="77" t="s">
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="78"/>
-      <c r="V37" s="78"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="78"/>
-      <c r="Z37" s="78"/>
-      <c r="AA37" s="78"/>
-      <c r="AB37" s="78"/>
-      <c r="AC37" s="78"/>
-      <c r="AD37" s="78"/>
-      <c r="AE37" s="78"/>
-      <c r="AF37" s="78"/>
-      <c r="AG37" s="78"/>
-      <c r="AH37" s="78"/>
-      <c r="AI37" s="78"/>
-      <c r="AJ37" s="78"/>
-      <c r="AK37" s="78"/>
-      <c r="AL37" s="78"/>
-      <c r="AM37" s="78"/>
-      <c r="AN37" s="78"/>
-      <c r="AO37" s="78"/>
-      <c r="AP37" s="79"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="76"/>
+      <c r="AB37" s="76"/>
+      <c r="AC37" s="76"/>
+      <c r="AD37" s="76"/>
+      <c r="AE37" s="76"/>
+      <c r="AF37" s="76"/>
+      <c r="AG37" s="76"/>
+      <c r="AH37" s="76"/>
+      <c r="AI37" s="76"/>
+      <c r="AJ37" s="76"/>
+      <c r="AK37" s="76"/>
+      <c r="AL37" s="76"/>
+      <c r="AM37" s="76"/>
+      <c r="AN37" s="76"/>
+      <c r="AO37" s="76"/>
+      <c r="AP37" s="77"/>
       <c r="AQ37" s="33"/>
     </row>
     <row r="38" spans="1:45" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="80" t="s">
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="82"/>
-      <c r="U38" s="80" t="s">
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="80"/>
+      <c r="U38" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="V38" s="81"/>
-      <c r="W38" s="81"/>
-      <c r="X38" s="81"/>
-      <c r="Y38" s="81"/>
-      <c r="Z38" s="81"/>
-      <c r="AA38" s="82"/>
-      <c r="AB38" s="83" t="s">
+      <c r="V38" s="79"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="80"/>
+      <c r="AB38" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="AC38" s="81"/>
-      <c r="AD38" s="81"/>
-      <c r="AE38" s="81"/>
-      <c r="AF38" s="81"/>
-      <c r="AG38" s="82"/>
-      <c r="AH38" s="84" t="s">
+      <c r="AC38" s="79"/>
+      <c r="AD38" s="79"/>
+      <c r="AE38" s="79"/>
+      <c r="AF38" s="79"/>
+      <c r="AG38" s="80"/>
+      <c r="AH38" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="AI38" s="85"/>
-      <c r="AJ38" s="85"/>
-      <c r="AK38" s="85"/>
-      <c r="AL38" s="85"/>
-      <c r="AM38" s="76" t="s">
+      <c r="AI38" s="83"/>
+      <c r="AJ38" s="83"/>
+      <c r="AK38" s="83"/>
+      <c r="AL38" s="83"/>
+      <c r="AM38" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="AN38" s="76"/>
-      <c r="AO38" s="76"/>
-      <c r="AP38" s="76"/>
+      <c r="AN38" s="74"/>
+      <c r="AO38" s="74"/>
+      <c r="AP38" s="74"/>
       <c r="AQ38" s="33"/>
     </row>
     <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87" t="s">
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="87" t="s">
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="V39" s="87"/>
-      <c r="W39" s="87"/>
-      <c r="X39" s="87"/>
-      <c r="Y39" s="87"/>
-      <c r="Z39" s="87"/>
-      <c r="AA39" s="87"/>
-      <c r="AB39" s="88" t="s">
+      <c r="V39" s="85"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="85"/>
+      <c r="Y39" s="85"/>
+      <c r="Z39" s="85"/>
+      <c r="AA39" s="85"/>
+      <c r="AB39" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="AC39" s="89"/>
-      <c r="AD39" s="89"/>
-      <c r="AE39" s="89"/>
-      <c r="AF39" s="89"/>
-      <c r="AG39" s="89"/>
-      <c r="AH39" s="90">
-        <v>0.06</v>
-      </c>
-      <c r="AI39" s="91"/>
-      <c r="AJ39" s="91"/>
-      <c r="AK39" s="91"/>
-      <c r="AL39" s="91"/>
-      <c r="AM39" s="74" t="s">
+      <c r="AC39" s="87"/>
+      <c r="AD39" s="87"/>
+      <c r="AE39" s="87"/>
+      <c r="AF39" s="87"/>
+      <c r="AG39" s="87"/>
+      <c r="AH39" s="88"/>
+      <c r="AI39" s="89"/>
+      <c r="AJ39" s="89"/>
+      <c r="AK39" s="89"/>
+      <c r="AL39" s="89"/>
+      <c r="AM39" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AN39" s="74"/>
-      <c r="AO39" s="74"/>
-      <c r="AP39" s="74"/>
+      <c r="AN39" s="72"/>
+      <c r="AO39" s="72"/>
+      <c r="AP39" s="72"/>
       <c r="AQ39" s="33"/>
     </row>
     <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4517,6 +4588,7 @@
     <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG13:AL13"/>
     <mergeCell ref="AM39:AP39"/>
     <mergeCell ref="J8:R8"/>
     <mergeCell ref="AK8:AP8"/>
@@ -4533,7 +4605,6 @@
     <mergeCell ref="U39:AA39"/>
     <mergeCell ref="AB39:AG39"/>
     <mergeCell ref="AH39:AL39"/>
-    <mergeCell ref="AG13:AL13"/>
     <mergeCell ref="J6:R6"/>
     <mergeCell ref="AK6:AP6"/>
     <mergeCell ref="J7:R7"/>
@@ -4656,8 +4727,8 @@
   </sheetPr>
   <dimension ref="A1:AS270"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AV14" sqref="AV14"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AM39" sqref="AM39:AP39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4814,44 +4885,44 @@
       <c r="I6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="68" t="str">
+      <c r="J6" s="66" t="str">
         <f>Cooling!J6</f>
         <v>EAP00500300D1</v>
       </c>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
       <c r="V6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="68" t="str">
+      <c r="W6" s="66" t="str">
         <f>Cooling!W6</f>
         <v>CCU-7.4K-01 XCP</v>
       </c>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
       <c r="AG6" s="11"/>
       <c r="AH6" s="11"/>
       <c r="AI6" s="11"/>
       <c r="AJ6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AK6" s="69"/>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="69"/>
-      <c r="AN6" s="69"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="69"/>
+      <c r="AK6" s="67"/>
+      <c r="AL6" s="67"/>
+      <c r="AM6" s="67"/>
+      <c r="AN6" s="67"/>
+      <c r="AO6" s="67"/>
+      <c r="AP6" s="67"/>
       <c r="AQ6" s="14"/>
     </row>
     <row r="7" spans="1:43" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4866,32 +4937,32 @@
       <c r="I7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="70" t="str">
+      <c r="J7" s="68" t="str">
         <f>Cooling!J7</f>
         <v>BMW</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
       <c r="V7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W7" s="70" t="str">
+      <c r="W7" s="68" t="str">
         <f>Cooling!W7</f>
         <v>D1.2</v>
       </c>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
       <c r="AH7" s="11"/>
@@ -4899,12 +4970,12 @@
       <c r="AJ7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="69"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
       <c r="AQ7" s="16"/>
     </row>
     <row r="8" spans="1:43" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4921,29 +4992,29 @@
       <c r="I8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
       <c r="V8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="70" t="str">
+      <c r="W8" s="68" t="str">
         <f>Cooling!W8</f>
         <v>D0R0P2T61</v>
       </c>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
@@ -4952,12 +5023,12 @@
       <c r="AJ8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="75"/>
-      <c r="AM8" s="75"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="75"/>
-      <c r="AP8" s="75"/>
+      <c r="AK8" s="73"/>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="73"/>
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="73"/>
+      <c r="AP8" s="73"/>
       <c r="AQ8" s="14"/>
     </row>
     <row r="9" spans="1:43" s="5" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5119,7 +5190,7 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
-      <c r="AG12" s="66" t="s">
+      <c r="AG12" s="91" t="s">
         <v>61</v>
       </c>
       <c r="AM12" s="4"/>
@@ -5169,14 +5240,14 @@
       <c r="AD13" s="24"/>
       <c r="AE13" s="24"/>
       <c r="AF13" s="24"/>
-      <c r="AG13" s="67">
-        <v>44574</v>
-      </c>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
+      <c r="AG13" s="92">
+        <v>44231</v>
+      </c>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="92"/>
       <c r="AM13" s="25"/>
       <c r="AN13" s="25"/>
       <c r="AO13" s="4"/>
@@ -6124,7 +6195,9 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="62" t="s">
+        <v>38</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
       <c r="K34" s="3"/>
@@ -6255,159 +6328,159 @@
     </row>
     <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="77" t="s">
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="78"/>
-      <c r="V37" s="78"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="78"/>
-      <c r="Z37" s="78"/>
-      <c r="AA37" s="78"/>
-      <c r="AB37" s="78"/>
-      <c r="AC37" s="78"/>
-      <c r="AD37" s="78"/>
-      <c r="AE37" s="78"/>
-      <c r="AF37" s="78"/>
-      <c r="AG37" s="78"/>
-      <c r="AH37" s="78"/>
-      <c r="AI37" s="78"/>
-      <c r="AJ37" s="78"/>
-      <c r="AK37" s="78"/>
-      <c r="AL37" s="78"/>
-      <c r="AM37" s="78"/>
-      <c r="AN37" s="78"/>
-      <c r="AO37" s="78"/>
-      <c r="AP37" s="79"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="76"/>
+      <c r="AB37" s="76"/>
+      <c r="AC37" s="76"/>
+      <c r="AD37" s="76"/>
+      <c r="AE37" s="76"/>
+      <c r="AF37" s="76"/>
+      <c r="AG37" s="76"/>
+      <c r="AH37" s="76"/>
+      <c r="AI37" s="76"/>
+      <c r="AJ37" s="76"/>
+      <c r="AK37" s="76"/>
+      <c r="AL37" s="76"/>
+      <c r="AM37" s="76"/>
+      <c r="AN37" s="76"/>
+      <c r="AO37" s="76"/>
+      <c r="AP37" s="77"/>
       <c r="AQ37" s="33"/>
     </row>
     <row r="38" spans="1:45" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="80" t="s">
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="82"/>
-      <c r="U38" s="80" t="s">
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="80"/>
+      <c r="U38" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="V38" s="81"/>
-      <c r="W38" s="81"/>
-      <c r="X38" s="81"/>
-      <c r="Y38" s="81"/>
-      <c r="Z38" s="81"/>
-      <c r="AA38" s="82"/>
-      <c r="AB38" s="80" t="s">
+      <c r="V38" s="79"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="80"/>
+      <c r="AB38" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AC38" s="81"/>
-      <c r="AD38" s="81"/>
-      <c r="AE38" s="81"/>
-      <c r="AF38" s="81"/>
-      <c r="AG38" s="82"/>
-      <c r="AH38" s="84" t="s">
+      <c r="AC38" s="79"/>
+      <c r="AD38" s="79"/>
+      <c r="AE38" s="79"/>
+      <c r="AF38" s="79"/>
+      <c r="AG38" s="80"/>
+      <c r="AH38" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="AI38" s="85"/>
-      <c r="AJ38" s="85"/>
-      <c r="AK38" s="85"/>
-      <c r="AL38" s="85"/>
-      <c r="AM38" s="76" t="s">
+      <c r="AI38" s="83"/>
+      <c r="AJ38" s="83"/>
+      <c r="AK38" s="83"/>
+      <c r="AL38" s="83"/>
+      <c r="AM38" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="AN38" s="76"/>
-      <c r="AO38" s="76"/>
-      <c r="AP38" s="76"/>
+      <c r="AN38" s="74"/>
+      <c r="AO38" s="74"/>
+      <c r="AP38" s="74"/>
       <c r="AQ38" s="33"/>
     </row>
     <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87" t="s">
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="87" t="s">
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="V39" s="87"/>
-      <c r="W39" s="87"/>
-      <c r="X39" s="87"/>
-      <c r="Y39" s="87"/>
-      <c r="Z39" s="87"/>
-      <c r="AA39" s="87"/>
-      <c r="AB39" s="88" t="s">
+      <c r="V39" s="85"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="85"/>
+      <c r="Y39" s="85"/>
+      <c r="Z39" s="85"/>
+      <c r="AA39" s="85"/>
+      <c r="AB39" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="AC39" s="89"/>
-      <c r="AD39" s="89"/>
-      <c r="AE39" s="89"/>
-      <c r="AF39" s="89"/>
-      <c r="AG39" s="89"/>
-      <c r="AH39" s="92"/>
-      <c r="AI39" s="92"/>
-      <c r="AJ39" s="92"/>
-      <c r="AK39" s="92"/>
-      <c r="AL39" s="92"/>
-      <c r="AM39" s="74" t="s">
+      <c r="AC39" s="87"/>
+      <c r="AD39" s="87"/>
+      <c r="AE39" s="87"/>
+      <c r="AF39" s="87"/>
+      <c r="AG39" s="87"/>
+      <c r="AH39" s="90"/>
+      <c r="AI39" s="90"/>
+      <c r="AJ39" s="90"/>
+      <c r="AK39" s="90"/>
+      <c r="AL39" s="90"/>
+      <c r="AM39" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AN39" s="74"/>
-      <c r="AO39" s="74"/>
-      <c r="AP39" s="74"/>
+      <c r="AN39" s="72"/>
+      <c r="AO39" s="72"/>
+      <c r="AP39" s="72"/>
       <c r="AQ39" s="33"/>
     </row>
     <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
